--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1942.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1942.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.466990084929989</v>
+        <v>0.4697517454624176</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>0.592220664024353</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>0.8604615926742554</v>
       </c>
       <c r="D1">
-        <v>1.484342232325651</v>
+        <v>3.788425207138062</v>
       </c>
       <c r="E1">
-        <v>1.018225462688581</v>
+        <v>5.655208587646484</v>
       </c>
     </row>
   </sheetData>
